--- a/assets/uploads/template_company_new.xlsx
+++ b/assets/uploads/template_company_new.xlsx
@@ -1,22 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24325"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="11_DD159EE413E6F8A374100C3C1C5B4183AF19FE87" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1CC115C-B983-4115-AF10-2E57CCFBB4CB}"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="105" windowWidth="19095" windowHeight="7305"/>
+    <workbookView xWindow="75" yWindow="105" windowWidth="19095" windowHeight="7305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
   <si>
     <t>NAMA</t>
   </si>
@@ -24,6 +36,12 @@
     <t>ALAMAT</t>
   </si>
   <si>
+    <t>KECAMATAN ID</t>
+  </si>
+  <si>
+    <t>KECAMATAN</t>
+  </si>
+  <si>
     <t>KABUPATEN ID</t>
   </si>
   <si>
@@ -48,6 +66,21 @@
     <t>LABEL</t>
   </si>
   <si>
+    <t>NO_REK</t>
+  </si>
+  <si>
+    <t>BANK</t>
+  </si>
+  <si>
+    <t>PT BUKIT KEMUNING 1</t>
+  </si>
+  <si>
+    <t>KEMUNING 1</t>
+  </si>
+  <si>
+    <t>PULAU BANYAK</t>
+  </si>
+  <si>
     <t>KABUPATEN ACEH SINGKIL</t>
   </si>
   <si>
@@ -63,49 +96,112 @@
     <t>Agung Hardiyanto</t>
   </si>
   <si>
+    <t>prodi</t>
+  </si>
+  <si>
+    <t>1182292919</t>
+  </si>
+  <si>
+    <t>Mandiri</t>
+  </si>
+  <si>
     <t>PT BUKIT KEMUNING 2</t>
   </si>
   <si>
+    <t>KEMUNING 2</t>
+  </si>
+  <si>
+    <t>FAWI</t>
+  </si>
+  <si>
+    <t>KABUPATEN PUNCAK</t>
+  </si>
+  <si>
+    <t>PAPUA</t>
+  </si>
+  <si>
+    <t>ptkemuning2@gmail.com</t>
+  </si>
+  <si>
+    <t>08123456781</t>
+  </si>
+  <si>
+    <t>Hardi</t>
+  </si>
+  <si>
+    <t>bersama</t>
+  </si>
+  <si>
+    <t>1182292920</t>
+  </si>
+  <si>
+    <t>BCA</t>
+  </si>
+  <si>
     <t>PT BUKIT KEMUNING 3</t>
   </si>
   <si>
+    <t>KEMUNING 3</t>
+  </si>
+  <si>
+    <t>NAMBIOMAN BAPAI</t>
+  </si>
+  <si>
+    <t>KABUPATEN MAPPI</t>
+  </si>
+  <si>
+    <t>ptkemuning3@gmail.com</t>
+  </si>
+  <si>
+    <t>08123456782</t>
+  </si>
+  <si>
+    <t>Yanto</t>
+  </si>
+  <si>
+    <t>1182292921</t>
+  </si>
+  <si>
+    <t>BRI</t>
+  </si>
+  <si>
     <t>PT BUKIT KEMUNING 4</t>
   </si>
   <si>
+    <t>KEMUNING 4</t>
+  </si>
+  <si>
+    <t>KOTA BARAT</t>
+  </si>
+  <si>
+    <t>KOTA GORONTALO</t>
+  </si>
+  <si>
+    <t>GORONTALO</t>
+  </si>
+  <si>
+    <t>ptkemuning4@gmail.com</t>
+  </si>
+  <si>
+    <t>08123456783</t>
+  </si>
+  <si>
+    <t>Jution</t>
+  </si>
+  <si>
+    <t>1182292922</t>
+  </si>
+  <si>
+    <t>BNI</t>
+  </si>
+  <si>
     <t>PT BUKIT KEMUNING 5</t>
   </si>
   <si>
-    <t>PT BUKIT KEMUNING 1</t>
-  </si>
-  <si>
-    <t>KEMUNING 1</t>
-  </si>
-  <si>
-    <t>KEMUNING 2</t>
-  </si>
-  <si>
-    <t>KEMUNING 3</t>
-  </si>
-  <si>
-    <t>KEMUNING 4</t>
-  </si>
-  <si>
     <t>KEMUNING 5</t>
   </si>
   <si>
-    <t>KABUPATEN PUNCAK</t>
-  </si>
-  <si>
-    <t>PAPUA</t>
-  </si>
-  <si>
-    <t>KABUPATEN MAPPI</t>
-  </si>
-  <si>
-    <t>KOTA GORONTALO</t>
-  </si>
-  <si>
-    <t>GORONTALO</t>
+    <t>MANDAI</t>
   </si>
   <si>
     <t>KABUPATEN MAROS</t>
@@ -114,73 +210,25 @@
     <t>SULAWESI SELATAN</t>
   </si>
   <si>
-    <t>ptkemuning2@gmail.com</t>
-  </si>
-  <si>
-    <t>ptkemuning3@gmail.com</t>
-  </si>
-  <si>
-    <t>ptkemuning4@gmail.com</t>
-  </si>
-  <si>
     <t>ptkemuning5@gmail.com</t>
   </si>
   <si>
-    <t>08123456781</t>
-  </si>
-  <si>
-    <t>08123456782</t>
-  </si>
-  <si>
-    <t>08123456783</t>
-  </si>
-  <si>
     <t>08123456784</t>
   </si>
   <si>
-    <t>Hardi</t>
-  </si>
-  <si>
-    <t>Yanto</t>
-  </si>
-  <si>
-    <t>Jution</t>
-  </si>
-  <si>
     <t>Candra</t>
   </si>
   <si>
-    <t>prodi</t>
-  </si>
-  <si>
-    <t>bersama</t>
-  </si>
-  <si>
-    <t>KECAMATAN ID</t>
-  </si>
-  <si>
-    <t>KECAMATAN</t>
-  </si>
-  <si>
-    <t>PULAU BANYAK</t>
-  </si>
-  <si>
-    <t>FAWI</t>
-  </si>
-  <si>
-    <t>NAMBIOMAN BAPAI</t>
-  </si>
-  <si>
-    <t>KOTA BARAT</t>
-  </si>
-  <si>
-    <t>MANDAI</t>
+    <t>1182292923</t>
+  </si>
+  <si>
+    <t>Permata</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -221,12 +269,13 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -234,6 +283,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -280,7 +337,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -312,9 +369,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -346,6 +421,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -521,11 +614,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -537,12 +630,13 @@
     <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -550,239 +644,275 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C2" s="4">
         <v>1102010</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1">
         <v>1102</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G2" s="1">
         <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C3" s="4">
         <v>9411040</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="E3" s="1">
         <v>9433</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G3" s="1">
         <v>94</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="L3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C4" s="4">
         <v>9414010</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E4" s="1">
         <v>9414</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="G4" s="1">
         <v>94</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="C5" s="4">
         <v>7571010</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E5" s="1">
         <v>7571</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="G5" s="1">
         <v>75</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N5" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="C6" s="4">
         <v>7308010</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E6" s="1">
         <v>7308</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="G6" s="1">
         <v>73</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="N6" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I3" r:id="rId1"/>
-    <hyperlink ref="I4" r:id="rId2"/>
-    <hyperlink ref="I5" r:id="rId3"/>
-    <hyperlink ref="I6" r:id="rId4"/>
+    <hyperlink ref="I3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="I5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -794,7 +924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
